--- a/data-raw/EpiDataFrance.xlsx
+++ b/data-raw/EpiDataFrance.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascalcrepey/Google Drive/1-EPC/1-HospiCoV/HospiCoV/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC23B9-C0A5-A74C-85A7-5B37E2FDBE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A355F9-9CCA-D342-93A6-935F9A3620DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{89D0AB58-881E-504C-952E-F7F84638B81D}"/>
+    <workbookView xWindow="3180" yWindow="2040" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{89D0AB58-881E-504C-952E-F7F84638B81D}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSeries Cases" sheetId="4" r:id="rId1"/>
-    <sheet name="HopitauxIdF" sheetId="5" r:id="rId2"/>
-    <sheet name="Proportion of cases" sheetId="1" r:id="rId3"/>
-    <sheet name="French population" sheetId="3" r:id="rId4"/>
-    <sheet name="Chinese population" sheetId="2" r:id="rId5"/>
+    <sheet name="TimeSeries Rea" sheetId="6" r:id="rId2"/>
+    <sheet name="HopitauxIdF" sheetId="5" r:id="rId3"/>
+    <sheet name="Proportion of cases" sheetId="1" r:id="rId4"/>
+    <sheet name="French population" sheetId="3" r:id="rId5"/>
+    <sheet name="Chinese population" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chinese population'!$A$1:$H$1099</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'French population'!$A$1:$J$367</definedName>
-    <definedName name="UNdata_Export_20200308_204223770" localSheetId="4">'Chinese population'!$A$1:$H$1103</definedName>
-    <definedName name="UNdata_Export_20200308_205318956_1" localSheetId="3">'French population'!$A$1:$J$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Chinese population'!$A$1:$H$1099</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'French population'!$A$1:$J$367</definedName>
+    <definedName name="UNdata_Export_20200308_204223770" localSheetId="5">'Chinese population'!$A$1:$H$1103</definedName>
+    <definedName name="UNdata_Export_20200308_205318956_1" localSheetId="4">'French population'!$A$1:$J$370</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6739" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="188">
   <si>
     <t>80P</t>
   </si>
@@ -1193,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6366D1D-D90C-1F4A-BDD1-5ED124F8F5CA}">
   <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2420,6 +2421,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0294D3A9-FFB6-D942-B01D-278B3EE4945F}">
+  <dimension ref="A1:BM54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="152" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>43852</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>43854</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>43855</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>43856</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>43857</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+    </row>
+    <row r="8" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>43858</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="BK8" s="10"/>
+    </row>
+    <row r="9" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="BK9" s="10"/>
+    </row>
+    <row r="10" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>43860</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="BK10" s="10"/>
+    </row>
+    <row r="11" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>43861</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="BK11" s="10"/>
+    </row>
+    <row r="12" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>43862</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="BK12" s="10"/>
+    </row>
+    <row r="13" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>43863</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="BK13" s="10"/>
+    </row>
+    <row r="14" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>43864</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="BK14" s="10"/>
+    </row>
+    <row r="15" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>43865</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="BK15" s="10"/>
+    </row>
+    <row r="16" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>43866</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="BK16" s="10"/>
+    </row>
+    <row r="17" spans="1:63" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>43867</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="BK17" s="10"/>
+    </row>
+    <row r="18" spans="1:63" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>43868</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="BK18" s="10"/>
+    </row>
+    <row r="19" spans="1:63" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>43869</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="BK19" s="10"/>
+    </row>
+    <row r="20" spans="1:63" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>43870</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="BK20" s="10"/>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>43871</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>43872</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>43873</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>43875</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>43876</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>43877</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>43878</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>43879</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>43880</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>43881</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>43882</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
+        <v>43883</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>43884</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>43885</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>43886</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>43887</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>43888</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>43889</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>43890</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>43891</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>43892</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>43893</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>43894</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>43895</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>43896</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>43897</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>43898</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
+        <v>43899</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9">
+        <v>40</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
+        <v>43901</v>
+      </c>
+      <c r="J51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>43904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52019511-4A8B-6F46-B911-DD6C9A2A3300}">
   <dimension ref="A1:K89"/>
   <sheetViews>
@@ -4044,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15167F8-0FF3-4448-83D7-4709A835F1DF}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -4794,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E00AC-AAAC-9747-8B82-5B78A58AA640}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J370"/>
@@ -16614,7 +17751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187F2D1B-191D-824D-BF51-46D06271F634}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1103"/>

--- a/data-raw/EpiDataFrance.xlsx
+++ b/data-raw/EpiDataFrance.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="193">
   <si>
     <t>80P</t>
   </si>
@@ -669,6 +669,18 @@
   <si>
     <t>Metropole</t>
   </si>
+  <si>
+    <t>Grand-Est</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhone-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comte</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,8 +1209,8 @@
   <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1218,7 @@
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="155.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="151.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1214,10 +1226,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>54</v>
@@ -1229,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>58</v>
@@ -1250,7 +1262,7 @@
         <v>63</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>188</v>

--- a/data-raw/EpiDataFrance.xlsx
+++ b/data-raw/EpiDataFrance.xlsx
@@ -1209,8 +1209,8 @@
   <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -1326,7 +1328,9 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1439,8 +1443,12 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -1510,7 +1518,9 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
       <c r="Q8" s="10"/>
       <c r="S8" s="9"/>
       <c r="BK8" s="10"/>
@@ -1754,7 +1764,9 @@
       <c r="B19" s="17">
         <v>11</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2121,7 +2133,9 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2136,12 +2150,16 @@
       <c r="B37" s="17">
         <v>18</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9">
+        <v>7</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2158,8 +2176,12 @@
         <v>38</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="9">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2179,14 +2201,20 @@
         <v>57</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="9">
+        <v>5</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2201,7 +2229,9 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>4</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2221,8 +2251,12 @@
         <v>130</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9">
+        <v>15</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2241,9 +2275,13 @@
       <c r="B42" s="17">
         <v>191</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="9">
+        <v>32</v>
+      </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <v>19</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2262,9 +2300,15 @@
       <c r="B43" s="17">
         <v>204</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="C43" s="9">
+        <v>36</v>
+      </c>
+      <c r="D43" s="9">
+        <v>15</v>
+      </c>
+      <c r="E43" s="9">
+        <v>23</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2323,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="P44">
-        <f t="shared" ref="P44:P51" si="0">IF(COUNTBLANK(C44:O44)&gt;0,"",SUM(C44:O44))</f>
+        <f t="shared" ref="P44:P52" si="0">IF(COUNTBLANK(C44:O44)&gt;0,"",SUM(C44:O44))</f>
         <v>282</v>
       </c>
     </row>
@@ -2637,6 +2681,52 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>43902</v>
+      </c>
+      <c r="B52" s="16">
+        <v>2876</v>
+      </c>
+      <c r="C52" s="9">
+        <v>329</v>
+      </c>
+      <c r="D52" s="9">
+        <v>219</v>
+      </c>
+      <c r="E52" s="9">
+        <v>117</v>
+      </c>
+      <c r="F52" s="9">
+        <v>30</v>
+      </c>
+      <c r="G52" s="9">
+        <v>64</v>
+      </c>
+      <c r="H52" s="9">
+        <v>699</v>
+      </c>
+      <c r="I52" s="9">
+        <v>349</v>
+      </c>
+      <c r="J52" s="9">
+        <v>577</v>
+      </c>
+      <c r="K52" s="9">
+        <v>68</v>
+      </c>
+      <c r="L52" s="9">
+        <v>87</v>
+      </c>
+      <c r="M52" s="9">
+        <v>133</v>
+      </c>
+      <c r="N52" s="9">
+        <v>41</v>
+      </c>
+      <c r="O52" s="9">
+        <v>147</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>2860</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">

--- a/data-raw/EpiDataFrance.xlsx
+++ b/data-raw/EpiDataFrance.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascalcrepey/Google Drive/1-EPC/1-HospiCoV/HospiCoV/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B840BAF-4C4A-B14C-A3C6-D170A927D6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41535303-6432-9F48-9F2D-007BF6082490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="18440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="6460" windowWidth="30840" windowHeight="13840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSeries Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="TimeSeries Rea" sheetId="2" r:id="rId2"/>
-    <sheet name="HopitauxIdF" sheetId="3" r:id="rId3"/>
-    <sheet name="Proportion of cases" sheetId="4" r:id="rId4"/>
-    <sheet name="French population" sheetId="5" r:id="rId5"/>
-    <sheet name="Chinese population" sheetId="6" r:id="rId6"/>
+    <sheet name="REA" sheetId="7" r:id="rId2"/>
+    <sheet name="TimeSeries Rea" sheetId="2" r:id="rId3"/>
+    <sheet name="HopitauxIdF" sheetId="3" r:id="rId4"/>
+    <sheet name="Proportion of cases" sheetId="4" r:id="rId5"/>
+    <sheet name="French population" sheetId="5" r:id="rId6"/>
+    <sheet name="Chinese population" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Chinese population'!$A$1:$H$1099</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'French population'!$A$1:$J$367</definedName>
-    <definedName name="UNdata_Export_20200308_204223770" localSheetId="5">'Chinese population'!$A$1:$H$1103</definedName>
-    <definedName name="UNdata_Export_20200308_205318956_1" localSheetId="4">'French population'!$A$1:$J$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chinese population'!$A$1:$H$1099</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'French population'!$A$1:$J$367</definedName>
+    <definedName name="UNdata_Export_20200308_204223770" localSheetId="6">'Chinese population'!$A$1:$H$1103</definedName>
+    <definedName name="UNdata_Export_20200308_205318956_1" localSheetId="5">'French population'!$A$1:$J$370</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="194">
   <si>
     <t>Country/Region</t>
   </si>
@@ -655,6 +656,9 @@
   <si>
     <t>Data exclude 2.3 million servicemen, 4.65 million persons with permanent resident status difficult to define, and 0.12 per cent undercount based on the post enumeration survey.</t>
   </si>
+  <si>
+    <t>capacity_rea</t>
+  </si>
 </sst>
 </file>
 
@@ -1221,10 +1225,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2822,6 +2826,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FCCB21-C790-2D4C-9D71-E959D68B95F1}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="148" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2">
+        <v>4934</v>
+      </c>
+      <c r="C2">
+        <v>559</v>
+      </c>
+      <c r="D2">
+        <v>198</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2">
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>465</v>
+      </c>
+      <c r="I2">
+        <v>438</v>
+      </c>
+      <c r="J2">
+        <v>1147</v>
+      </c>
+      <c r="K2">
+        <v>240</v>
+      </c>
+      <c r="L2">
+        <v>412</v>
+      </c>
+      <c r="M2">
+        <v>474</v>
+      </c>
+      <c r="N2">
+        <v>181</v>
+      </c>
+      <c r="O2">
+        <v>460</v>
+      </c>
+      <c r="P2">
+        <f>SUM(C2:O2)</f>
+        <v>4934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
@@ -3959,7 +4076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K89"/>
   <sheetViews>
@@ -5586,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -6336,7 +6453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J370"/>
@@ -18133,7 +18250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1103"/>
